--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -471,45 +471,115 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>603789543</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>603789543</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d s a</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>dfgdsgs ss s</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Администрация</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>В основном по указанию непосредственного руководителя</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>6016855180</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6016855180</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6959852164</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6959852164</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a w r</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>603789543</t>
+          <t>6959852164</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dfgdsgs ss s</t>
+          <t>ds sdf s</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Администрация</t>
+          <t>Отдел монтажа</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>В основном по указанию непосредственного руководителя</t>
+          <t>Под руководством непосредственного руководителя (руководителя работ, начальника ОМ, исполнительного директора)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Как правило, Вы самостоятельно планируете и организовываете свою работу</t>
         </is>
       </c>
     </row>
@@ -515,69 +515,106 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>asfa sf a</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Отдел монтажа</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Под руководством непосредственного руководителя (руководителя работ, начальника ОМ, исполнительного директора)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Как правило, Вы самостоятельно планируете и организовываете свою работу</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6959852164</t>
+          <t>603789543</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>fs dfsd fsd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Сервисный отдел</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Как правило, Вы самостоятельно планируете и организовываете свою работу</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>991027824</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кам вари вал</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Администрация</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>В основном по указанию непосредственного руководителя</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
